--- a/Jeu de données.xlsx
+++ b/Jeu de données.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="898" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="898" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Personne" sheetId="1" r:id="rId1"/>
@@ -1477,14 +1477,14 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>19</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="44">
         <v>20</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="44">
         <v>21</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="44">
         <v>22</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="44">
         <v>23</v>
       </c>
@@ -1827,20 +1827,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>179</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <v>1</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="52">
         <v>2</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
         <v>3</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>4</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
         <v>5</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <v>6</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>7</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="52">
         <v>8</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
         <v>9</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>10</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>11</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
         <v>12</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="52">
         <v>13</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
         <v>14</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
         <v>15</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="52">
         <v>16</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="52">
         <v>17</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="52">
         <v>18</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="52">
         <v>19</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="52">
         <v>20</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="52">
         <v>21</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="52">
         <v>22</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="52">
         <v>23</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="52">
         <v>24</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="52">
         <v>25</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="52">
         <v>26</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="52">
         <v>27</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="52">
         <v>28</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="52">
         <v>29</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="52">
         <v>30</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="52">
         <v>31</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="52">
         <v>32</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="52">
         <v>33</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="52">
         <v>34</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="52">
         <v>35</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="52">
         <v>36</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="52">
         <v>37</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="52">
         <v>38</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="52">
         <v>39</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="52">
         <v>40</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="52">
         <v>41</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="52">
         <v>42</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="52">
         <v>43</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="52">
         <v>44</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="52">
         <v>45</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="52">
         <v>46</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="52">
         <v>47</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="52">
         <v>48</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="52">
         <v>49</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="52">
         <v>50</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="52">
         <v>51</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="52">
         <v>52</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="52">
         <v>53</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="52">
         <v>54</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="52">
         <v>55</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="52">
         <v>56</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="52">
         <v>57</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="52">
         <v>58</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="52">
         <v>59</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="52">
         <v>60</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="52">
         <v>61</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="52">
         <v>62</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="52">
         <v>63</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="52">
         <v>64</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="52">
         <v>65</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="52">
         <v>66</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="52">
         <v>67</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="52">
         <v>68</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="52">
         <v>69</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="52">
         <v>70</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="52">
         <v>71</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="52">
         <v>72</v>
       </c>
@@ -3079,6 +3079,286 @@
       </c>
       <c r="E73">
         <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="52">
+        <v>73</v>
+      </c>
+      <c r="B74" s="23">
+        <v>85</v>
+      </c>
+      <c r="C74" s="23">
+        <v>45</v>
+      </c>
+      <c r="D74" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="52">
+        <v>74</v>
+      </c>
+      <c r="B75" s="23">
+        <v>26</v>
+      </c>
+      <c r="C75" s="23">
+        <v>32</v>
+      </c>
+      <c r="D75" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="52">
+        <v>75</v>
+      </c>
+      <c r="B76" s="23">
+        <v>59</v>
+      </c>
+      <c r="C76" s="23">
+        <v>18</v>
+      </c>
+      <c r="D76" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="52">
+        <v>76</v>
+      </c>
+      <c r="B77" s="23">
+        <v>48</v>
+      </c>
+      <c r="C77" s="23">
+        <v>15</v>
+      </c>
+      <c r="D77" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="52">
+        <v>77</v>
+      </c>
+      <c r="B78" s="23">
+        <v>75</v>
+      </c>
+      <c r="C78" s="23">
+        <v>22</v>
+      </c>
+      <c r="D78" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="52">
+        <v>78</v>
+      </c>
+      <c r="B79" s="23">
+        <v>42</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="52">
+        <v>79</v>
+      </c>
+      <c r="B80" s="23">
+        <v>62</v>
+      </c>
+      <c r="C80">
+        <v>34</v>
+      </c>
+      <c r="D80" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="52">
+        <v>80</v>
+      </c>
+      <c r="B81" s="23">
+        <v>34</v>
+      </c>
+      <c r="C81">
+        <v>24</v>
+      </c>
+      <c r="D81" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="52">
+        <v>81</v>
+      </c>
+      <c r="B82" s="23">
+        <v>15</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="52">
+        <v>82</v>
+      </c>
+      <c r="B83" s="23">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="52">
+        <v>83</v>
+      </c>
+      <c r="B84" s="23">
+        <v>48</v>
+      </c>
+      <c r="C84">
+        <v>27</v>
+      </c>
+      <c r="D84" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="52">
+        <v>84</v>
+      </c>
+      <c r="B85" s="23">
+        <v>59</v>
+      </c>
+      <c r="C85">
+        <v>22</v>
+      </c>
+      <c r="D85" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="52">
+        <v>85</v>
+      </c>
+      <c r="B86" s="23">
+        <v>64</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="52">
+        <v>86</v>
+      </c>
+      <c r="B87" s="23">
+        <v>53</v>
+      </c>
+      <c r="C87">
+        <v>17</v>
+      </c>
+      <c r="D87" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="52">
+        <v>87</v>
+      </c>
+      <c r="B88" s="23">
+        <v>24</v>
+      </c>
+      <c r="C88">
+        <v>36</v>
+      </c>
+      <c r="D88" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="52">
+        <v>88</v>
+      </c>
+      <c r="B89" s="23">
+        <v>58</v>
+      </c>
+      <c r="C89">
+        <v>22</v>
+      </c>
+      <c r="D89" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="52">
+        <v>89</v>
+      </c>
+      <c r="B90" s="23">
+        <v>28</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
+      </c>
+      <c r="D90" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="52">
+        <v>90</v>
+      </c>
+      <c r="B91" s="23">
+        <v>27</v>
+      </c>
+      <c r="C91">
+        <v>14</v>
+      </c>
+      <c r="D91" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="52">
+        <v>91</v>
+      </c>
+      <c r="B92" s="23">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>19</v>
+      </c>
+      <c r="D92" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="52">
+        <v>92</v>
+      </c>
+      <c r="B93" s="23">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>28</v>
+      </c>
+      <c r="D93" s="14">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3094,17 +3374,17 @@
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>182</v>
       </c>
@@ -3124,7 +3404,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3144,7 +3424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3164,7 +3444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -3184,7 +3464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -3204,7 +3484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -3224,7 +3504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>3</v>
       </c>
@@ -3244,7 +3524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>1</v>
       </c>
@@ -3264,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>2</v>
       </c>
@@ -3284,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>1</v>
       </c>
@@ -3304,7 +3584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>2</v>
       </c>
@@ -3324,7 +3604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>1</v>
       </c>
@@ -3344,7 +3624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>2</v>
       </c>
@@ -3364,7 +3644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>1</v>
       </c>
@@ -3384,7 +3664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>1</v>
       </c>
@@ -3404,7 +3684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>2</v>
       </c>
@@ -3424,7 +3704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>1</v>
       </c>
@@ -3444,7 +3724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>1</v>
       </c>
@@ -3464,7 +3744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>3</v>
       </c>
@@ -3484,7 +3764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>3</v>
       </c>
@@ -3504,7 +3784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>1</v>
       </c>
@@ -3524,7 +3804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>2</v>
       </c>
@@ -3544,7 +3824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>1</v>
       </c>
@@ -3564,7 +3844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>3</v>
       </c>
@@ -3584,7 +3864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>3</v>
       </c>
@@ -3604,7 +3884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>3</v>
       </c>
@@ -3624,7 +3904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>3</v>
       </c>
@@ -3644,7 +3924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>1</v>
       </c>
@@ -3664,7 +3944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>2</v>
       </c>
@@ -3684,7 +3964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>2</v>
       </c>
@@ -3704,7 +3984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>1</v>
       </c>
@@ -3724,7 +4004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>2</v>
       </c>
@@ -3744,7 +4024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>1</v>
       </c>
@@ -3764,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>1</v>
       </c>
@@ -3784,7 +4064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>3</v>
       </c>
@@ -3804,7 +4084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>2</v>
       </c>
@@ -3824,7 +4104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>2</v>
       </c>
@@ -3844,7 +4124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>3</v>
       </c>
@@ -3864,7 +4144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>2</v>
       </c>
@@ -3884,7 +4164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>2</v>
       </c>
@@ -3904,7 +4184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>1</v>
       </c>
@@ -3924,7 +4204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>1</v>
       </c>
@@ -3944,7 +4224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>1</v>
       </c>
@@ -3964,7 +4244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>2</v>
       </c>
@@ -3984,7 +4264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>2</v>
       </c>
@@ -4004,7 +4284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>1</v>
       </c>
@@ -4024,7 +4304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>2</v>
       </c>
@@ -4044,7 +4324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>1</v>
       </c>
@@ -4064,7 +4344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>2</v>
       </c>
@@ -4084,7 +4364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>3</v>
       </c>
@@ -4104,7 +4384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>2</v>
       </c>
@@ -4124,7 +4404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>1</v>
       </c>
@@ -4144,7 +4424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>3</v>
       </c>
@@ -4164,7 +4444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>3</v>
       </c>
@@ -4184,7 +4464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>3</v>
       </c>
@@ -4204,7 +4484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>1</v>
       </c>
@@ -4224,7 +4504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>3</v>
       </c>
@@ -4257,17 +4537,17 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>182</v>
       </c>
@@ -4287,7 +4567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>2</v>
       </c>
@@ -4307,7 +4587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -4327,7 +4607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -4347,7 +4627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -4367,7 +4647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -4387,7 +4667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>3</v>
       </c>
@@ -4407,7 +4687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>1</v>
       </c>
@@ -4427,7 +4707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -4447,7 +4727,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -4480,15 +4760,15 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -4505,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4522,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4539,7 +4819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4556,7 +4836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4573,7 +4853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4590,7 +4870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4604,34 +4884,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
     </row>
   </sheetData>
@@ -4644,19 +4924,19 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A9:E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
@@ -4674,7 +4954,7 @@
       </c>
       <c r="I1" s="44"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4691,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4705,7 +4985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4719,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -4736,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4750,7 +5030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4764,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4778,7 +5058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4792,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4806,7 +5086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -4833,15 +5113,15 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
@@ -4861,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4878,7 +5158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4889,7 +5169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4919,13 +5199,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
@@ -4936,7 +5216,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4947,7 +5227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4958,7 +5238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4969,7 +5249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -4994,12 +5274,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -5007,7 +5287,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -5015,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>1</v>
       </c>
@@ -5023,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -5031,7 +5311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>2</v>
       </c>
@@ -5039,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>4</v>
       </c>
@@ -5058,13 +5338,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -5072,7 +5352,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5080,7 +5360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5088,7 +5368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5096,7 +5376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5104,7 +5384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5112,7 +5392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5120,7 +5400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5128,7 +5408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -5136,7 +5416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -5144,7 +5424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5152,7 +5432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -5160,7 +5440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5168,7 +5448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5176,7 +5456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -5184,7 +5464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5192,7 +5472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5200,7 +5480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -5208,7 +5488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -5216,7 +5496,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -5224,7 +5504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5232,7 +5512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -5240,7 +5520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5248,7 +5528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -5256,7 +5536,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5264,7 +5544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -5272,7 +5552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5280,7 +5560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5288,7 +5568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5296,7 +5576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -5304,7 +5584,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -5312,7 +5592,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -5320,7 +5600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -5328,7 +5608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -5336,7 +5616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -5344,7 +5624,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5352,7 +5632,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -5360,7 +5640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5368,7 +5648,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -5376,7 +5656,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -5384,7 +5664,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -5392,7 +5672,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5400,7 +5680,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5408,7 +5688,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -5416,7 +5696,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -5424,7 +5704,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -5432,7 +5712,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -5440,7 +5720,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -5448,7 +5728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -5456,7 +5736,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -5464,7 +5744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -5472,7 +5752,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -5480,7 +5760,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -5488,7 +5768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -5496,7 +5776,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -5504,7 +5784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -5512,7 +5792,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -5520,7 +5800,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -5528,7 +5808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -5536,7 +5816,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -5544,7 +5824,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -5552,7 +5832,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -5560,7 +5840,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -5568,7 +5848,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -5576,7 +5856,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -5584,7 +5864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -5592,7 +5872,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -5600,7 +5880,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -5608,7 +5888,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -5616,7 +5896,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -5624,7 +5904,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -5632,7 +5912,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -5640,7 +5920,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -5648,7 +5928,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -5656,7 +5936,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -5664,7 +5944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -5685,12 +5965,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>75</v>
       </c>
@@ -5701,7 +5981,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -5712,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -5723,7 +6003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -5734,7 +6014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -5758,14 +6038,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>70</v>
       </c>
@@ -5779,7 +6059,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5793,7 +6073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5808,7 +6088,7 @@
       </c>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -5823,22 +6103,22 @@
       </c>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H5" s="44"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H10" s="19"/>
     </row>
   </sheetData>
@@ -5854,16 +6134,16 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375"/>
-    <col min="9" max="9" width="9.109375"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625"/>
+    <col min="9" max="9" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>87</v>
       </c>
@@ -5877,7 +6157,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2">
         <v>1</v>
@@ -5886,13 +6166,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4">
         <v>3</v>
@@ -5901,7 +6181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5">
         <v>4</v>
@@ -5910,13 +6190,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7">
         <v>6</v>
@@ -5925,7 +6205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8">
         <v>7</v>
@@ -5934,19 +6214,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11">
         <v>10</v>
@@ -5955,7 +6235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>95</v>
       </c>
@@ -5969,7 +6249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>36</v>
       </c>
@@ -5983,7 +6263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>41</v>
       </c>
@@ -5997,7 +6277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2</v>
       </c>
@@ -6011,7 +6291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -6025,7 +6305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>30</v>
       </c>
@@ -6039,7 +6319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>9</v>
       </c>
@@ -6053,7 +6333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>29</v>
       </c>
@@ -6064,7 +6344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>43</v>
       </c>
@@ -6075,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>1</v>
       </c>
@@ -6099,22 +6379,22 @@
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="14"/>
-    <col min="2" max="2" width="33.44140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="14"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="33.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="14"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="9.109375" style="14"/>
-    <col min="17" max="17" width="37.6640625" style="14" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="14"/>
+    <col min="6" max="16" width="9.140625" style="14"/>
+    <col min="17" max="17" width="37.7109375" style="14" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>88</v>
       </c>
@@ -6134,7 +6414,7 @@
       <c r="S1" s="42"/>
       <c r="T1" s="42"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -6154,7 +6434,7 @@
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -6174,7 +6454,7 @@
       <c r="S3" s="42"/>
       <c r="T3" s="42"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -6188,7 +6468,7 @@
       <c r="F4" s="42"/>
       <c r="Q4" s="41"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -6202,7 +6482,7 @@
       <c r="F5" s="42"/>
       <c r="Q5" s="36"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -6215,7 +6495,7 @@
       <c r="E6" s="14"/>
       <c r="Q6" s="36"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -6228,7 +6508,7 @@
       <c r="E7" s="14"/>
       <c r="Q7" s="36"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -6241,7 +6521,7 @@
       <c r="E8" s="14"/>
       <c r="Q8" s="36"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -6254,7 +6534,7 @@
       <c r="E9" s="14"/>
       <c r="Q9" s="36"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -6267,7 +6547,7 @@
       <c r="E10" s="14"/>
       <c r="Q10" s="36"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -6280,7 +6560,7 @@
       <c r="E11" s="14"/>
       <c r="Q11" s="36"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -6293,7 +6573,7 @@
       <c r="E12" s="14"/>
       <c r="Q12" s="36"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -6305,7 +6585,7 @@
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>14</v>
       </c>
@@ -6317,7 +6597,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>15</v>
       </c>
@@ -6329,7 +6609,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>16</v>
       </c>
@@ -6341,7 +6621,7 @@
       </c>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>17</v>
       </c>
@@ -6353,7 +6633,7 @@
       </c>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>18</v>
       </c>
@@ -6365,7 +6645,7 @@
       </c>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>19</v>
       </c>
@@ -6377,7 +6657,7 @@
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>20</v>
       </c>
@@ -6389,7 +6669,7 @@
       </c>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>21</v>
       </c>
@@ -6401,7 +6681,7 @@
       </c>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>30</v>
       </c>
@@ -6413,7 +6693,7 @@
       </c>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>31</v>
       </c>
@@ -6425,7 +6705,7 @@
       </c>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>32</v>
       </c>
@@ -6437,7 +6717,7 @@
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>33</v>
       </c>
@@ -6449,7 +6729,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>34</v>
       </c>
@@ -6461,7 +6741,7 @@
       </c>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>35</v>
       </c>
@@ -6473,7 +6753,7 @@
       </c>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>36</v>
       </c>
@@ -6485,7 +6765,7 @@
       </c>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>37</v>
       </c>
@@ -6497,7 +6777,7 @@
       </c>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>38</v>
       </c>
@@ -6509,7 +6789,7 @@
       </c>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>39</v>
       </c>
@@ -6521,7 +6801,7 @@
       </c>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>40</v>
       </c>
@@ -6533,7 +6813,7 @@
       </c>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>41</v>
       </c>
@@ -6545,7 +6825,7 @@
       </c>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>42</v>
       </c>
@@ -6557,7 +6837,7 @@
       </c>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>43</v>
       </c>
@@ -6569,7 +6849,7 @@
       </c>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>44</v>
       </c>
@@ -6581,7 +6861,7 @@
       </c>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>45</v>
       </c>
@@ -6593,7 +6873,7 @@
       </c>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>46</v>
       </c>
@@ -6605,7 +6885,7 @@
       </c>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>47</v>
       </c>
@@ -6617,7 +6897,7 @@
       </c>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>48</v>
       </c>
@@ -6629,7 +6909,7 @@
       </c>
       <c r="E40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>49</v>
       </c>
@@ -6641,7 +6921,7 @@
       </c>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>50</v>
       </c>
@@ -6653,7 +6933,7 @@
       </c>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>51</v>
       </c>
@@ -6665,7 +6945,7 @@
       </c>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>52</v>
       </c>
@@ -6677,7 +6957,7 @@
       </c>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>53</v>
       </c>
@@ -6689,7 +6969,7 @@
       </c>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>54</v>
       </c>
@@ -6700,7 +6980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>55</v>
       </c>
@@ -6711,7 +6991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>56</v>
       </c>
@@ -6722,7 +7002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>57</v>
       </c>
@@ -6733,7 +7013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>58</v>
       </c>
@@ -6744,7 +7024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>59</v>
       </c>
@@ -6755,7 +7035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>60</v>
       </c>
@@ -6766,7 +7046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>61</v>
       </c>
@@ -6777,7 +7057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>62</v>
       </c>
@@ -6788,7 +7068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>63</v>
       </c>
@@ -6799,7 +7079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>64</v>
       </c>
@@ -6810,7 +7090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>65</v>
       </c>
@@ -6821,7 +7101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>66</v>
       </c>
@@ -6832,7 +7112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>67</v>
       </c>
@@ -6843,7 +7123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>68</v>
       </c>
@@ -6854,7 +7134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>69</v>
       </c>
@@ -6865,7 +7145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>70</v>
       </c>
@@ -6876,7 +7156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>71</v>
       </c>
@@ -6887,7 +7167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>72</v>
       </c>
@@ -6898,7 +7178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>73</v>
       </c>
@@ -6909,7 +7189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>74</v>
       </c>
@@ -6920,7 +7200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>75</v>
       </c>
@@ -6931,7 +7211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>76</v>
       </c>
@@ -6942,7 +7222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>77</v>
       </c>
@@ -6953,7 +7233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>78</v>
       </c>
@@ -6964,7 +7244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>79</v>
       </c>
@@ -6975,7 +7255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>80</v>
       </c>
@@ -6986,7 +7266,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>81</v>
       </c>
@@ -6997,7 +7277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>82</v>
       </c>
@@ -7008,7 +7288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>83</v>
       </c>
@@ -7019,7 +7299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>84</v>
       </c>
@@ -7030,7 +7310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>85</v>
       </c>
@@ -7041,7 +7321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>86</v>
       </c>
@@ -7052,7 +7332,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>87</v>
       </c>
@@ -7063,7 +7343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>88</v>
       </c>
@@ -7074,7 +7354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>89</v>
       </c>
@@ -7085,7 +7365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>90</v>
       </c>
@@ -7096,7 +7376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>91</v>
       </c>
@@ -7107,7 +7387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>92</v>
       </c>
@@ -7118,7 +7398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>93</v>
       </c>
@@ -7129,7 +7409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>94</v>
       </c>
@@ -7140,7 +7420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>95</v>
       </c>
@@ -7151,7 +7431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>96</v>
       </c>
@@ -7162,7 +7442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>97</v>
       </c>
@@ -7173,7 +7453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>98</v>
       </c>
@@ -7184,7 +7464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>99</v>
       </c>
@@ -7204,21 +7484,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>178</v>
       </c>
@@ -7232,7 +7512,7 @@
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -7246,7 +7526,7 @@
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31</v>
       </c>
@@ -7260,7 +7540,7 @@
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>32</v>
       </c>
@@ -7274,7 +7554,7 @@
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>33</v>
       </c>
@@ -7288,7 +7568,7 @@
       <c r="I5" s="44"/>
       <c r="J5" s="44"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>34</v>
       </c>
@@ -7302,7 +7582,7 @@
       <c r="I6" s="44"/>
       <c r="J6" s="44"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>35</v>
       </c>
@@ -7316,7 +7596,7 @@
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>36</v>
       </c>
@@ -7330,7 +7610,7 @@
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>37</v>
       </c>
@@ -7344,7 +7624,7 @@
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>38</v>
       </c>
@@ -7358,7 +7638,7 @@
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>39</v>
       </c>
@@ -7372,7 +7652,7 @@
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>40</v>
       </c>
@@ -7386,7 +7666,7 @@
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -7400,7 +7680,7 @@
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -7414,7 +7694,7 @@
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43</v>
       </c>
@@ -7428,7 +7708,7 @@
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -7442,7 +7722,7 @@
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>45</v>
       </c>
@@ -7456,7 +7736,7 @@
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>46</v>
       </c>
@@ -7470,7 +7750,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>47</v>
       </c>
@@ -7484,7 +7764,7 @@
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>48</v>
       </c>
@@ -7498,7 +7778,7 @@
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>49</v>
       </c>
@@ -7512,7 +7792,7 @@
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50</v>
       </c>
@@ -7526,7 +7806,7 @@
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>51</v>
       </c>
@@ -7540,7 +7820,7 @@
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>52</v>
       </c>
@@ -7554,7 +7834,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>53</v>
       </c>
@@ -7568,7 +7848,7 @@
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>54</v>
       </c>
@@ -7582,7 +7862,7 @@
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>55</v>
       </c>
@@ -7596,7 +7876,7 @@
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>56</v>
       </c>
@@ -7610,7 +7890,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>57</v>
       </c>
@@ -7624,7 +7904,7 @@
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>58</v>
       </c>
@@ -7638,7 +7918,7 @@
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>59</v>
       </c>
@@ -7652,7 +7932,7 @@
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>60</v>
       </c>
@@ -7666,7 +7946,7 @@
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>61</v>
       </c>
@@ -7680,7 +7960,7 @@
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>62</v>
       </c>
@@ -7694,7 +7974,7 @@
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>63</v>
       </c>
@@ -7708,7 +7988,7 @@
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>64</v>
       </c>
@@ -7722,7 +8002,7 @@
       <c r="I36" s="44"/>
       <c r="J36" s="44"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>65</v>
       </c>
@@ -7736,7 +8016,7 @@
       <c r="I37" s="44"/>
       <c r="J37" s="44"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>66</v>
       </c>
@@ -7750,7 +8030,7 @@
       <c r="I38" s="44"/>
       <c r="J38" s="44"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>67</v>
       </c>
@@ -7764,7 +8044,7 @@
       <c r="I39" s="44"/>
       <c r="J39" s="44"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>68</v>
       </c>
@@ -7778,7 +8058,7 @@
       <c r="I40" s="44"/>
       <c r="J40" s="44"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>69</v>
       </c>
@@ -7792,7 +8072,7 @@
       <c r="I41" s="44"/>
       <c r="J41" s="44"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>70</v>
       </c>
@@ -7806,7 +8086,7 @@
       <c r="I42" s="44"/>
       <c r="J42" s="44"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>71</v>
       </c>
@@ -7820,7 +8100,7 @@
       <c r="I43" s="44"/>
       <c r="J43" s="44"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>72</v>
       </c>
@@ -7834,7 +8114,7 @@
       <c r="I44" s="44"/>
       <c r="J44" s="44"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>73</v>
       </c>
@@ -7848,7 +8128,7 @@
       <c r="I45" s="44"/>
       <c r="J45" s="44"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>74</v>
       </c>
@@ -7862,7 +8142,7 @@
       <c r="I46" s="44"/>
       <c r="J46" s="44"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>75</v>
       </c>
@@ -7876,7 +8156,7 @@
       <c r="I47" s="44"/>
       <c r="J47" s="44"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>76</v>
       </c>
@@ -7890,7 +8170,7 @@
       <c r="I48" s="44"/>
       <c r="J48" s="44"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>77</v>
       </c>
@@ -7904,7 +8184,7 @@
       <c r="I49" s="44"/>
       <c r="J49" s="44"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>78</v>
       </c>
@@ -7918,7 +8198,7 @@
       <c r="I50" s="44"/>
       <c r="J50" s="44"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>79</v>
       </c>
@@ -7932,7 +8212,7 @@
       <c r="I51" s="44"/>
       <c r="J51" s="44"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>80</v>
       </c>
@@ -7946,7 +8226,7 @@
       <c r="I52" s="44"/>
       <c r="J52" s="44"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>81</v>
       </c>
@@ -7960,7 +8240,7 @@
       <c r="I53" s="44"/>
       <c r="J53" s="44"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>82</v>
       </c>
@@ -7974,7 +8254,7 @@
       <c r="I54" s="44"/>
       <c r="J54" s="44"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>83</v>
       </c>
@@ -7988,7 +8268,7 @@
       <c r="I55" s="44"/>
       <c r="J55" s="44"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>84</v>
       </c>
@@ -8002,7 +8282,7 @@
       <c r="I56" s="44"/>
       <c r="J56" s="44"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>85</v>
       </c>
@@ -8016,7 +8296,7 @@
       <c r="I57" s="44"/>
       <c r="J57" s="44"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>86</v>
       </c>
@@ -8030,7 +8310,7 @@
       <c r="I58" s="44"/>
       <c r="J58" s="44"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>87</v>
       </c>
@@ -8044,7 +8324,7 @@
       <c r="I59" s="44"/>
       <c r="J59" s="44"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>88</v>
       </c>
@@ -8058,7 +8338,7 @@
       <c r="I60" s="44"/>
       <c r="J60" s="44"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>89</v>
       </c>
@@ -8072,7 +8352,7 @@
       <c r="I61" s="44"/>
       <c r="J61" s="44"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>90</v>
       </c>
@@ -8086,7 +8366,7 @@
       <c r="I62" s="44"/>
       <c r="J62" s="44"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>91</v>
       </c>
@@ -8100,7 +8380,7 @@
       <c r="I63" s="44"/>
       <c r="J63" s="44"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>92</v>
       </c>
@@ -8114,7 +8394,7 @@
       <c r="I64" s="44"/>
       <c r="J64" s="44"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>93</v>
       </c>
@@ -8128,7 +8408,7 @@
       <c r="I65" s="44"/>
       <c r="J65" s="44"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>94</v>
       </c>
@@ -8142,7 +8422,7 @@
       <c r="I66" s="44"/>
       <c r="J66" s="44"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>95</v>
       </c>
@@ -8156,7 +8436,7 @@
       <c r="I67" s="44"/>
       <c r="J67" s="44"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>96</v>
       </c>
@@ -8170,7 +8450,7 @@
       <c r="I68" s="44"/>
       <c r="J68" s="44"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>97</v>
       </c>
@@ -8184,7 +8464,7 @@
       <c r="I69" s="44"/>
       <c r="J69" s="44"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>98</v>
       </c>
@@ -8198,7 +8478,7 @@
       <c r="I70" s="44"/>
       <c r="J70" s="44"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>99</v>
       </c>
@@ -8212,7 +8492,7 @@
       <c r="I71" s="44"/>
       <c r="J71" s="44"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
@@ -8223,7 +8503,7 @@
       <c r="I72" s="44"/>
       <c r="J72" s="44"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
       <c r="D73" s="44"/>
@@ -8234,7 +8514,7 @@
       <c r="I73" s="44"/>
       <c r="J73" s="44"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
       <c r="D74" s="44"/>
@@ -8245,7 +8525,7 @@
       <c r="I74" s="44"/>
       <c r="J74" s="44"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>

--- a/Jeu de données.xlsx
+++ b/Jeu de données.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="898"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="898" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Commande" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="213">
   <si>
     <t>Arnol</t>
   </si>
@@ -666,12 +666,6 @@
   </si>
   <si>
     <t>Diluant</t>
-  </si>
-  <si>
-    <t>type int dans</t>
-  </si>
-  <si>
-    <t>la bdd</t>
   </si>
   <si>
     <t xml:space="preserve">                                </t>
@@ -745,7 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,10 +1088,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1110,6 +1100,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1394,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1802,7 +1796,7 @@
       <c r="B14" s="4">
         <v>16</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="53">
         <v>13</v>
       </c>
       <c r="D14" s="4">
@@ -3125,7 +3119,7 @@
       <c r="C94" s="16">
         <v>2</v>
       </c>
-      <c r="D94" s="58">
+      <c r="D94" s="54">
         <v>39</v>
       </c>
       <c r="E94" s="16">
@@ -3142,7 +3136,7 @@
       <c r="C95" s="16">
         <v>2</v>
       </c>
-      <c r="D95" s="58">
+      <c r="D95" s="54">
         <v>57</v>
       </c>
       <c r="E95" s="16">
@@ -3159,7 +3153,7 @@
       <c r="C96" s="16">
         <v>2</v>
       </c>
-      <c r="D96" s="58">
+      <c r="D96" s="54">
         <v>72</v>
       </c>
       <c r="E96" s="16">
@@ -3176,14 +3170,14 @@
       <c r="C97" s="20">
         <v>2</v>
       </c>
-      <c r="D97" s="59">
+      <c r="D97" s="55">
         <v>76</v>
       </c>
       <c r="E97" s="20">
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4101,10 +4095,10 @@
       <c r="A1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="56" t="s">
         <v>176</v>
       </c>
       <c r="D1" s="52" t="s">
@@ -4114,7 +4108,7 @@
         <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5261,22 +5255,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="60" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8407,10 +8401,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8430,7 +8424,7 @@
       <c r="C1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="6" t="s">
         <v>210</v>
       </c>
       <c r="E1" s="35" t="s">
@@ -8447,8 +8441,8 @@
       <c r="C2" s="4">
         <v>500</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>72</v>
+      <c r="D2" s="62">
+        <v>2</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
@@ -8462,7 +8456,7 @@
         <v>196</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="54"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="4">
         <v>18</v>
       </c>
@@ -8477,22 +8471,24 @@
       <c r="C4" s="5">
         <v>10</v>
       </c>
-      <c r="D4" s="55" t="s">
-        <v>71</v>
+      <c r="D4" s="63">
+        <v>1</v>
       </c>
       <c r="E4" s="5">
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="64"/>
+    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="56" t="s">
-        <v>211</v>
-      </c>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="56" t="s">
-        <v>212</v>
-      </c>
+      <c r="D7" s="61"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jeu de données.xlsx
+++ b/Jeu de données.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="898" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="898" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Commande" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="216">
   <si>
     <t>Arnol</t>
   </si>
@@ -449,15 +449,6 @@
     <t>Parchemin profane</t>
   </si>
   <si>
-    <t>Potion d'agrandissement</t>
-  </si>
-  <si>
-    <t>Potion de regain d'assurance</t>
-  </si>
-  <si>
-    <t>Potion de sagesse du hibou</t>
-  </si>
-  <si>
     <t>Urgrosh nain</t>
   </si>
   <si>
@@ -672,6 +663,24 @@
   </si>
   <si>
     <t>IDproduitFinal</t>
+  </si>
+  <si>
+    <t>Mèche</t>
+  </si>
+  <si>
+    <t>Herbe</t>
+  </si>
+  <si>
+    <t>Baton</t>
+  </si>
+  <si>
+    <t>Trousse</t>
+  </si>
+  <si>
+    <t>Crayon</t>
+  </si>
+  <si>
+    <t>Papier</t>
   </si>
 </sst>
 </file>
@@ -1403,19 +1412,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1423,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D2" s="4">
         <v>680</v>
@@ -1440,10 +1449,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D3" s="4">
         <v>750</v>
@@ -1457,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D4" s="4">
         <v>340</v>
@@ -1474,10 +1483,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D5" s="4">
         <v>199</v>
@@ -1491,10 +1500,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D6" s="4">
         <v>1080</v>
@@ -1508,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
@@ -1570,16 +1579,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>55</v>
@@ -3177,7 +3186,7 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3204,16 +3213,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>64</v>
@@ -3398,7 +3407,7 @@
         <v>55</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4093,22 +4102,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>174</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>177</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5256,22 +5265,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="E1" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>178</v>
-      </c>
       <c r="F1" s="60" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5554,10 +5563,10 @@
         <v>55</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5614,8 +5623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5630,7 +5639,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6689,16 +6698,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6978,7 +6987,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6992,7 +7001,7 @@
         <v>66</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7003,10 +7012,10 @@
         <v>67</v>
       </c>
       <c r="C23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>200</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7014,13 +7023,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -7051,13 +7060,13 @@
         <v>79</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>68</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7297,8 +7306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8014,7 +8023,7 @@
         <v>65</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="C57" s="7">
         <v>16</v>
@@ -8025,7 +8034,7 @@
         <v>66</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="C58" s="7">
         <v>14</v>
@@ -8036,7 +8045,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="C59" s="7">
         <v>11</v>
@@ -8047,7 +8056,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="C60" s="7">
         <v>17</v>
@@ -8058,7 +8067,7 @@
         <v>69</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="C61" s="7">
         <v>34</v>
@@ -8069,7 +8078,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C62" s="7">
         <v>34</v>
@@ -8080,7 +8089,7 @@
         <v>71</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C63" s="7">
         <v>34</v>
@@ -8091,7 +8100,7 @@
         <v>72</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C64" s="7">
         <v>24</v>
@@ -8102,7 +8111,7 @@
         <v>73</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C65" s="7">
         <v>21</v>
@@ -8113,7 +8122,7 @@
         <v>74</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C66" s="7">
         <v>8</v>
@@ -8124,7 +8133,7 @@
         <v>75</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C67" s="7">
         <v>9</v>
@@ -8135,7 +8144,7 @@
         <v>76</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C68" s="7">
         <v>33</v>
@@ -8146,7 +8155,7 @@
         <v>77</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C69" s="7">
         <v>20</v>
@@ -8157,7 +8166,7 @@
         <v>78</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C70" s="7">
         <v>17</v>
@@ -8168,7 +8177,7 @@
         <v>79</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C71" s="7">
         <v>35</v>
@@ -8179,7 +8188,7 @@
         <v>80</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C72" s="7">
         <v>37</v>
@@ -8190,7 +8199,7 @@
         <v>81</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C73" s="7">
         <v>8</v>
@@ -8201,7 +8210,7 @@
         <v>82</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C74" s="7">
         <v>22</v>
@@ -8212,7 +8221,7 @@
         <v>83</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C75" s="7">
         <v>6</v>
@@ -8223,7 +8232,7 @@
         <v>84</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C76" s="7">
         <v>12</v>
@@ -8234,7 +8243,7 @@
         <v>85</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C77" s="7">
         <v>26</v>
@@ -8245,7 +8254,7 @@
         <v>86</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C78" s="7">
         <v>32</v>
@@ -8256,7 +8265,7 @@
         <v>87</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C79" s="7">
         <v>20</v>
@@ -8267,7 +8276,7 @@
         <v>88</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C80" s="7">
         <v>2</v>
@@ -8278,7 +8287,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C81" s="7">
         <v>16</v>
@@ -8289,7 +8298,7 @@
         <v>90</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C82" s="7">
         <v>34</v>
@@ -8300,7 +8309,7 @@
         <v>91</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C83" s="7">
         <v>31</v>
@@ -8311,7 +8320,7 @@
         <v>92</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C84" s="7">
         <v>18</v>
@@ -8322,7 +8331,7 @@
         <v>93</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C85" s="7">
         <v>5</v>
@@ -8333,7 +8342,7 @@
         <v>94</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C86" s="7">
         <v>25</v>
@@ -8344,7 +8353,7 @@
         <v>95</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C87" s="7">
         <v>8</v>
@@ -8355,7 +8364,7 @@
         <v>96</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C88" s="7">
         <v>8</v>
@@ -8366,7 +8375,7 @@
         <v>97</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C89" s="7">
         <v>8</v>
@@ -8377,7 +8386,7 @@
         <v>98</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C90" s="7">
         <v>27</v>
@@ -8388,7 +8397,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C91" s="8">
         <v>18</v>
@@ -8403,7 +8412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -8416,19 +8425,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8436,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" s="4">
         <v>500</v>
@@ -8453,7 +8462,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="62"/>
@@ -8466,7 +8475,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C4" s="5">
         <v>10</v>
@@ -8519,7 +8528,7 @@
         <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
